--- a/src/main/java/algestudiante/p12/Mediciones.xlsx
+++ b/src/main/java/algestudiante/p12/Mediciones.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U N I\2º UNI\2do semestre\Algoritmia\Laboratorio\1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U N I\2º UNI\2do semestre\Algoritmia\Laboratorio\1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750426C-9678-42AB-979C-5F710D052235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>Medicion de tiempos bucle 1</t>
   </si>
@@ -35,9 +47,6 @@
     <t>tiempo(microsegundos)</t>
   </si>
   <si>
-    <t>t (microsegundo)</t>
-  </si>
-  <si>
     <t>repeticiones</t>
   </si>
   <si>
@@ -45,9 +54,6 @@
   </si>
   <si>
     <t>tiempo</t>
-  </si>
-  <si>
-    <t>Intel Core i5-4590 3.30GHz</t>
   </si>
   <si>
     <t>Proporcion</t>
@@ -61,12 +67,126 @@
   <si>
     <t>Medicion de tiempos para el bucle 2</t>
   </si>
+  <si>
+    <t>Repeticiones</t>
+  </si>
+  <si>
+    <t>t (ms)</t>
+  </si>
+  <si>
+    <t>Medicion de tiempos para el bucle 3</t>
+  </si>
+  <si>
+    <t>t(ms)</t>
+  </si>
+  <si>
+    <t>Medicion de tiempos para el bucle 4</t>
+  </si>
+  <si>
+    <t>FdT</t>
+  </si>
+  <si>
+    <t>Medicion de tiempos para el bucle 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporcion </t>
+  </si>
+  <si>
+    <t>Medicion de tiempos para el bucle 6</t>
+  </si>
+  <si>
+    <t>Medicion de tiempos para el bucle 7</t>
+  </si>
+  <si>
+    <t>Comparación entre dos algoritmos de distinta complejidad</t>
+  </si>
+  <si>
+    <t>t Bucle 1 (t1)</t>
+  </si>
+  <si>
+    <t>t Bucle 2 (t2)</t>
+  </si>
+  <si>
+    <t>t1/t2</t>
+  </si>
+  <si>
+    <t>Comparación entre dos algoritmos con la misma complejidad</t>
+  </si>
+  <si>
+    <t>t Bucle 3 (t3)</t>
+  </si>
+  <si>
+    <t>t3/t2</t>
+  </si>
+  <si>
+    <t>Comparación entre dos algoritmos con la misma complejidad en entornos distintos</t>
+  </si>
+  <si>
+    <t>t42/t41</t>
+  </si>
+  <si>
+    <t>t42 (ms)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t Bucle 4 Java sin (ms) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t Bucle 4 Python (ms)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t Bucle 4 Java con (ms) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t43</t>
+    </r>
+  </si>
+  <si>
+    <t>t43 (ms)</t>
+  </si>
+  <si>
+    <t>t43/t42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,18 +242,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,17 +373,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Medición</a:t>
+              <a:t>Bucle 1 - Java</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> de tiempos del bucle 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -253,10 +442,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$4:$A$13</c:f>
+              <c:f>Hoja1!$A$4:$A$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -286,45 +475,69 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$C$13</c:f>
+              <c:f>Hoja1!$G$4:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10.08</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.19</c:v>
+                  <c:v>1.6899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.39</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>2481</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>5286</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>11071</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,7 +545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA87-406A-8C8C-87407C8AC0B3}"/>
+              <c16:uniqueId val="{00000000-378B-4840-883D-B28A8830AF04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -344,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354336096"/>
-        <c:axId val="354338592"/>
+        <c:axId val="737328320"/>
+        <c:axId val="823346784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354336096"/>
+        <c:axId val="737328320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +581,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -405,12 +673,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354338592"/>
+        <c:crossAx val="823346784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354338592"/>
+        <c:axId val="823346784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +698,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -467,7 +795,1317 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354336096"/>
+        <c:crossAx val="737328320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Bucle 2 -Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$23:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C439-4670-8857-8C088A0041D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="822096256"/>
+        <c:axId val="480273520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="822096256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480273520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="480273520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822096256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Bucle 3 -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$41:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$41:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86C8-424C-ADAD-3A05ADA73DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="822084736"/>
+        <c:axId val="671013264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="822084736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671013264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671013264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822084736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Bucle 4 -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$57:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$57:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>476633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7F3-4FFD-AA6E-8DD837759097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="731322608"/>
+        <c:axId val="669550672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="731322608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669550672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="669550672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731322608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -556,6 +2194,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1072,24 +2830,1578 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB0948-ED12-9ECB-CB2B-41A7A5DCD42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1099,6 +4411,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFE6DAF-AD19-DEF0-71DA-9B084FB1BB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E482B55E-C432-5EF6-0B7E-C0B1736CF4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C272EE-F0E4-57CC-F01E-96BE0327397E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1369,500 +4789,2446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f>L4/E4</f>
-        <v>10.08</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
       </c>
       <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
         <v>603</v>
+      </c>
+      <c r="G4">
+        <f>L4/D4</f>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
       <c r="L4">
-        <v>1008</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="N4">
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <v>10000</v>
+      </c>
+      <c r="O4">
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="4">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:C13" si="0">L5/E5</f>
-        <v>22.19</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
       </c>
       <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
         <v>1340</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">L5/D5</f>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="K5">
         <v>200</v>
       </c>
       <c r="L5">
-        <v>2219</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="N5">
+        <v>169</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="O5">
         <v>1340</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>400</v>
       </c>
-      <c r="B6" s="4">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>2937</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>47.39</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>2937</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="K6">
         <v>400</v>
       </c>
       <c r="L6">
-        <v>4739</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="N6">
+        <v>355</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="O6">
         <v>2937</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>800</v>
       </c>
-      <c r="B7">
-        <v>115</v>
-      </c>
-      <c r="C7">
-        <v>115</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>1000</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>6942</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="G7">
+        <f>L7/D7</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K7">
+        <v>800</v>
+      </c>
+      <c r="L7">
+        <v>87</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1600</v>
       </c>
-      <c r="B8">
-        <v>244</v>
-      </c>
-      <c r="C8">
-        <v>244</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1000</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>14938</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="G8">
+        <f t="shared" ref="G8:G9" si="1">L8/D8</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1600</v>
+      </c>
+      <c r="L8">
+        <v>176</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="O8">
+        <v>14938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>3200</v>
       </c>
-      <c r="B9">
-        <v>516</v>
-      </c>
-      <c r="C9">
-        <v>516</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1000</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>32010</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="K9">
+        <v>3200</v>
+      </c>
+      <c r="L9">
+        <v>370</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="O9">
+        <v>32010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6400</v>
       </c>
-      <c r="B10">
-        <v>1096</v>
-      </c>
-      <c r="C10">
-        <v>1096</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <v>68272</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="G10">
+        <f>L10/D10</f>
+        <v>0.76</v>
+      </c>
+      <c r="K10">
+        <v>6400</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>68272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>12800</v>
       </c>
-      <c r="B11">
-        <v>2481</v>
-      </c>
-      <c r="C11">
-        <v>2481</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <v>153612</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="2">L11/D11</f>
+        <v>1.71</v>
+      </c>
+      <c r="K11">
+        <v>12800</v>
+      </c>
+      <c r="L11">
+        <v>171</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>153612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>25600</v>
       </c>
-      <c r="B12">
-        <v>5286</v>
-      </c>
-      <c r="C12">
-        <v>5286</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
         <v>324273</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>3.66</v>
+      </c>
+      <c r="K12">
+        <v>25600</v>
+      </c>
+      <c r="L12">
+        <v>366</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>324273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>51200</v>
       </c>
-      <c r="B13">
-        <v>11071</v>
-      </c>
-      <c r="C13">
-        <v>11071</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
         <v>682680</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
+      <c r="G13">
+        <f>L13/D13</f>
+        <v>8.5</v>
+      </c>
+      <c r="K13">
+        <v>51200</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>682680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>102400</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1501874</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="3">L14/D14</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K14">
+        <v>102400</v>
+      </c>
+      <c r="L14">
+        <v>181</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1501874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>204800</v>
+      </c>
+      <c r="B15" s="3">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3140282</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>36.4</v>
+      </c>
+      <c r="K15">
+        <v>204800</v>
+      </c>
+      <c r="L15">
+        <v>364</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>3140282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>409600</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6553608</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>819200</v>
+      </c>
+      <c r="B17">
+        <v>166</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>13653350</v>
+      </c>
+      <c r="G17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="O22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>25500</v>
+      </c>
+      <c r="G23">
+        <f>L23/D23</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K23" s="2">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>268</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>101000</v>
+      </c>
+      <c r="G24">
+        <f>L24/D24</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K24" s="2">
+        <v>200</v>
+      </c>
+      <c r="L24">
+        <v>111</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>400</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>482400</v>
+      </c>
+      <c r="G25">
+        <f>L25/D25</f>
+        <v>4.7</v>
+      </c>
+      <c r="K25" s="2">
+        <v>400</v>
+      </c>
+      <c r="L25">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>482400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>800</v>
+      </c>
+      <c r="B26" s="3">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2245600</v>
+      </c>
+      <c r="G26">
+        <f>L26/D26</f>
+        <v>22.3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>800</v>
+      </c>
+      <c r="L26">
+        <v>223</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>2245600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1600</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>8971200</v>
+      </c>
+      <c r="G27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3200</v>
+      </c>
+      <c r="B28">
+        <v>387</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>40985600</v>
+      </c>
+      <c r="G28">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6400</v>
+      </c>
+      <c r="B29">
+        <v>1529</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>163891200</v>
+      </c>
+      <c r="G29">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>12800</v>
+      </c>
+      <c r="B30">
+        <v>6954</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>737395200</v>
+      </c>
+      <c r="G30">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>25600</v>
+      </c>
+      <c r="B31">
+        <v>37367</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3277056000</v>
+      </c>
+      <c r="G31">
+        <v>37367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>51200</v>
+      </c>
+      <c r="B32">
+        <v>145356</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>13107712000</v>
+      </c>
+      <c r="G32">
+        <v>145356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>71400</v>
+      </c>
+      <c r="G41">
+        <f>L41/D41</f>
+        <v>0.86</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>86</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="O41">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>323200</v>
+      </c>
+      <c r="G42">
+        <f>L42/D42</f>
+        <v>3.71</v>
+      </c>
+      <c r="K42">
+        <v>200</v>
+      </c>
+      <c r="L42">
+        <v>371</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="O42">
+        <v>323200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43" s="3">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>1447200</v>
+      </c>
+      <c r="G43">
+        <f>L43/D43</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K43">
+        <v>400</v>
+      </c>
+      <c r="L43">
+        <v>166</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>1447200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>800</v>
+      </c>
+      <c r="B44">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6416000</v>
+      </c>
+      <c r="G44">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1600</v>
+      </c>
+      <c r="B45">
+        <v>304</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>28195200</v>
+      </c>
+      <c r="G45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3200</v>
+      </c>
+      <c r="B46">
+        <v>1356</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>122956800</v>
+      </c>
+      <c r="G46">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6400</v>
+      </c>
+      <c r="B47">
+        <v>5858</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>532646400</v>
+      </c>
+      <c r="G47">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12800</v>
+      </c>
+      <c r="B48">
+        <v>34648</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2294118400</v>
+      </c>
+      <c r="G48">
+        <v>34648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>25600</v>
+      </c>
+      <c r="B49">
+        <v>108378</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>9831168000</v>
+      </c>
+      <c r="G49">
+        <v>108378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>51200</v>
+      </c>
+      <c r="B50">
+        <v>152148</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10916748800</v>
+      </c>
+      <c r="G50">
+        <v>152148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>171700</v>
+      </c>
+      <c r="G57">
+        <f>L57/D57</f>
+        <v>1.17</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+      <c r="L57">
+        <v>117</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="O57">
+        <v>171700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>200</v>
+      </c>
+      <c r="B58" s="3">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>1353400</v>
+      </c>
+      <c r="G58">
+        <f>L58/D58</f>
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>200</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>1353400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>400</v>
+      </c>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>10746800</v>
+      </c>
+      <c r="G59">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>800</v>
+      </c>
+      <c r="B60">
+        <v>537</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>85653600</v>
+      </c>
+      <c r="G60">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1600</v>
+      </c>
+      <c r="B61">
+        <v>4359</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>683947200</v>
+      </c>
+      <c r="G61">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3200</v>
+      </c>
+      <c r="B62">
+        <v>34177</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>5466454400</v>
+      </c>
+      <c r="G62">
+        <v>34177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6400</v>
+      </c>
+      <c r="B63">
+        <v>476633</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>43711148800</v>
+      </c>
+      <c r="G63">
+        <v>476633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>12800</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>25600</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>51200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>100</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>84379</v>
+      </c>
+      <c r="G76">
+        <f>L76/D76</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76">
+        <v>110</v>
+      </c>
+      <c r="M76">
+        <v>100</v>
+      </c>
+      <c r="O76">
+        <v>84379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>200</v>
+      </c>
+      <c r="B77" s="3">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>453287</v>
+      </c>
+      <c r="G77">
+        <f>L77/D77</f>
+        <v>5.2</v>
+      </c>
+      <c r="K77">
+        <v>200</v>
+      </c>
+      <c r="L77">
+        <v>52</v>
+      </c>
+      <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="O77">
+        <v>453287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>400</v>
+      </c>
+      <c r="B78" s="3">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>2360752</v>
+      </c>
+      <c r="G78">
+        <f>L78/D78</f>
+        <v>23.6</v>
+      </c>
+      <c r="K78">
+        <v>400</v>
+      </c>
+      <c r="L78">
+        <v>236</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="O78">
+        <v>2360752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>800</v>
+      </c>
+      <c r="B79">
+        <v>112</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>11968002</v>
+      </c>
+      <c r="G79">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1600</v>
+      </c>
+      <c r="B80">
+        <v>549</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>59294685</v>
+      </c>
+      <c r="G80">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>3200</v>
+      </c>
+      <c r="B81">
+        <v>2536</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>288106857</v>
+      </c>
+      <c r="G81">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6400</v>
+      </c>
+      <c r="B82">
+        <v>11691</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1376928502</v>
+      </c>
+      <c r="G82">
+        <v>11691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="M22" t="s">
+      <c r="E89" t="s">
         <v>4</v>
       </c>
-      <c r="N22" t="s">
+      <c r="K89" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="M89" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>100</v>
       </c>
-      <c r="B23" s="4">
-        <v>358</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>805903</v>
+      </c>
+      <c r="G90">
+        <f>L90/D90</f>
+        <v>7.4</v>
+      </c>
+      <c r="K90">
         <v>100</v>
       </c>
-      <c r="F23">
-        <v>25500</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L90">
+        <v>74</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+      <c r="O90">
+        <v>805903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>200</v>
+      </c>
+      <c r="B91">
+        <v>81</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>7594028</v>
+      </c>
+      <c r="G91">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>400</v>
+      </c>
+      <c r="B92">
+        <v>565</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>70524793</v>
+      </c>
+      <c r="G92">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>800</v>
+      </c>
+      <c r="B93">
+        <v>4929</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>645343578</v>
+      </c>
+      <c r="G93">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1600</v>
+      </c>
+      <c r="B94">
+        <v>43361</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>5826168107</v>
+      </c>
+      <c r="G94">
+        <v>43361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6400</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="L103">
+        <v>404</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+      <c r="O103">
+        <v>4421275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>4421275</v>
+      </c>
+      <c r="G104">
+        <f>L103/D104</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>200</v>
       </c>
-      <c r="B24" s="4">
-        <v>1362</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="B105">
+        <v>410</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>68685050</v>
+      </c>
+      <c r="G105">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>6050</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1082740100</v>
+      </c>
+      <c r="G106">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>800</v>
+      </c>
+      <c r="B107">
+        <v>93835</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>17194960200</v>
+      </c>
+      <c r="G107">
+        <v>93835</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>100</v>
       </c>
-      <c r="F24">
-        <v>101000</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="B117">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C117">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E117">
+        <f>B117/C117</f>
+        <v>3.1716417910447763E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="B118">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="C118">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118:E125" si="4">B118/C118</f>
+        <v>1.5363636363636361E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>400</v>
       </c>
-      <c r="B25" s="4">
-        <v>6490</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="B119">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C119">
+        <v>4.7</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>7.5531914893617012E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>800</v>
+      </c>
+      <c r="B120">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C120">
+        <v>22.3</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>3.9013452914798204E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1600</v>
+      </c>
+      <c r="B121">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C121">
+        <v>88</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3200</v>
+      </c>
+      <c r="B122">
+        <v>0.37</v>
+      </c>
+      <c r="C122">
+        <v>387</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>9.5607235142118857E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6400</v>
+      </c>
+      <c r="B123">
+        <v>0.76</v>
+      </c>
+      <c r="C123">
+        <v>1529</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>4.9705689993459782E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>12800</v>
+      </c>
+      <c r="B124">
+        <v>1.71</v>
+      </c>
+      <c r="C124">
+        <v>6954</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>2.4590163934426229E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>25600</v>
+      </c>
+      <c r="B125">
+        <v>3.66</v>
+      </c>
+      <c r="C125">
+        <v>37367</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>9.7947386731608112E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>51200</v>
+      </c>
+      <c r="B126">
+        <v>8.5</v>
+      </c>
+      <c r="C126">
+        <v>145356</v>
+      </c>
+      <c r="E126">
+        <f>B126/C126</f>
+        <v>5.8477118247612761E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>100</v>
       </c>
-      <c r="F25">
-        <v>482400</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="B132">
+        <v>0.86</v>
+      </c>
+      <c r="C132">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E132">
+        <f>B132/C132</f>
+        <v>3.2089552238805967</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>200</v>
+      </c>
+      <c r="B133">
+        <v>3.71</v>
+      </c>
+      <c r="C133">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:E141" si="5">B133/C133</f>
+        <v>3.3727272727272726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>400</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="B134">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C134">
+        <v>4.7</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>3.5319148936170213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>800</v>
       </c>
-      <c r="B26" s="4">
-        <v>29784</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2245600</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="B135">
+        <v>74</v>
+      </c>
+      <c r="C135">
+        <v>22.3</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>3.3183856502242151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1600</v>
+      </c>
+      <c r="B136">
+        <v>304</v>
+      </c>
+      <c r="C136">
+        <v>88</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>3.4545454545454546</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3200</v>
+      </c>
+      <c r="B137">
+        <v>1356</v>
+      </c>
+      <c r="C137">
+        <v>387</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>3.5038759689922481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6400</v>
+      </c>
+      <c r="B138">
+        <v>5858</v>
+      </c>
+      <c r="C138">
+        <v>1529</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>3.8312622629169391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>12800</v>
+      </c>
+      <c r="B139">
+        <v>34648</v>
+      </c>
+      <c r="C139">
+        <v>6954</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>4.9824561403508776</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>25600</v>
+      </c>
+      <c r="B140">
+        <v>108378</v>
+      </c>
+      <c r="C140">
+        <v>37367</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>2.9003666336607168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>51200</v>
+      </c>
+      <c r="B141">
+        <v>152148</v>
+      </c>
+      <c r="C141">
+        <v>145356</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>1.0467266573103278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>100</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="D149" s="1">
+        <f>C162/E149</f>
+        <v>1.8</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
+        <f>C167/H149</f>
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="H149">
+        <v>10000</v>
+      </c>
+      <c r="J149" s="8">
+        <f>D149/B149</f>
+        <v>0.45</v>
+      </c>
+      <c r="K149" s="9">
+        <f>G149/D149</f>
+        <v>1.1722222222222222E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>200</v>
+      </c>
+      <c r="B150" s="1">
+        <v>31</v>
+      </c>
+      <c r="C150" s="3">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1">
+        <f>C163/E150</f>
+        <v>11.1</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <f>C168/H150</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H150">
+        <v>1000</v>
+      </c>
+      <c r="J150" s="8">
+        <f>D150/B150</f>
+        <v>0.35806451612903223</v>
+      </c>
+      <c r="K150" s="9">
+        <f>G150/D150</f>
+        <v>8.8288288288288289E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>400</v>
+      </c>
+      <c r="B151" s="1">
+        <v>281</v>
+      </c>
+      <c r="C151">
+        <v>68</v>
+      </c>
+      <c r="D151" s="1">
+        <v>68</v>
+      </c>
+      <c r="F151" s="3">
+        <v>4</v>
+      </c>
+      <c r="G151" s="1">
+        <f>C169/H151</f>
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H151">
+        <v>1000</v>
+      </c>
+      <c r="J151" s="8">
+        <f>D151/B151</f>
+        <v>0.24199288256227758</v>
+      </c>
+      <c r="K151" s="9">
+        <f>G151/D151</f>
+        <v>6.8970588235294115E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="B152" s="1">
+        <v>2614</v>
+      </c>
+      <c r="C152">
+        <v>537</v>
+      </c>
+      <c r="D152" s="1">
+        <v>537</v>
+      </c>
+      <c r="F152" s="3">
+        <v>3</v>
+      </c>
+      <c r="G152" s="1">
+        <f>C170/H152</f>
+        <v>2.74</v>
+      </c>
+      <c r="H152">
+        <v>100</v>
+      </c>
+      <c r="J152" s="8">
+        <f>D152/B152</f>
+        <v>0.20543228768171384</v>
+      </c>
+      <c r="K152" s="9">
+        <f>G152/D152</f>
+        <v>5.1024208566108013E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>1600</v>
       </c>
-      <c r="B27">
-        <v>123</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>8971200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="B153" s="1">
+        <v>23225</v>
+      </c>
+      <c r="C153">
+        <v>4359</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4359</v>
+      </c>
+      <c r="F153" s="3">
+        <v>22</v>
+      </c>
+      <c r="G153" s="1">
+        <f>C171/H153</f>
+        <v>20.6</v>
+      </c>
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="J153" s="8">
+        <f>D153/B153</f>
+        <v>0.18768568353067816</v>
+      </c>
+      <c r="K153" s="9">
+        <f>G153/D153</f>
+        <v>4.7258545537967427E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>3200</v>
       </c>
-      <c r="B28">
-        <v>548</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>40985600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="B154" s="1">
+        <v>258397</v>
+      </c>
+      <c r="C154">
+        <v>34177</v>
+      </c>
+      <c r="D154" s="1">
+        <v>34177</v>
+      </c>
+      <c r="F154">
+        <v>132</v>
+      </c>
+      <c r="G154" s="1">
+        <v>132</v>
+      </c>
+      <c r="J154" s="8">
+        <f>D154/B154</f>
+        <v>0.13226546747833759</v>
+      </c>
+      <c r="K154" s="9">
+        <f>G154/D154</f>
+        <v>3.8622465400708077E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>6400</v>
       </c>
-      <c r="B29">
-        <v>2223</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>163891200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>12800</v>
-      </c>
-      <c r="B30">
-        <v>9801</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>737395200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>25600</v>
-      </c>
-      <c r="B31">
-        <v>43228</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>3277056000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>51200</v>
-      </c>
-      <c r="B32">
-        <v>173583</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
+        <v>476633</v>
+      </c>
+      <c r="D155" s="1">
+        <v>476633</v>
+      </c>
+      <c r="F155">
+        <v>918</v>
+      </c>
+      <c r="G155" s="1">
+        <v>918</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" s="11">
+        <f>G155/D155</f>
+        <v>1.9260101587594649E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>100</v>
+      </c>
+      <c r="C162">
+        <v>180</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
+      </c>
+      <c r="F162">
+        <v>171700</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>200</v>
+      </c>
+      <c r="C163">
+        <v>111</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>1353400</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>100</v>
+      </c>
+      <c r="C167">
+        <v>211</v>
+      </c>
+      <c r="D167">
+        <v>10000</v>
+      </c>
+      <c r="F167">
+        <v>171700</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>200</v>
+      </c>
+      <c r="C168">
+        <v>98</v>
+      </c>
+      <c r="D168">
+        <v>1000</v>
+      </c>
+      <c r="F168">
+        <v>1353400</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>400</v>
+      </c>
+      <c r="C169">
+        <v>469</v>
+      </c>
+      <c r="D169">
+        <v>1000</v>
+      </c>
+      <c r="F169">
+        <v>10746800</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>800</v>
+      </c>
+      <c r="C170">
+        <v>274</v>
+      </c>
+      <c r="D170">
+        <v>100</v>
+      </c>
+      <c r="F170">
+        <v>85653600</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1600</v>
+      </c>
+      <c r="C171">
+        <v>206</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="F171">
+        <v>683947200</v>
       </c>
     </row>
   </sheetData>
